--- a/TestCases/Mars QA Project.xlsx
+++ b/TestCases/Mars QA Project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bhavani\MARSQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\64204\Documents\git-code\MarsQA\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F8E25-071C-4889-AB93-20987C7BDC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB972306-8483-4565-9F9C-BFBDEECD9363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{25FA7456-E5DE-46F6-ACDF-F528FABFE50B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{25FA7456-E5DE-46F6-ACDF-F528FABFE50B}"/>
   </bookViews>
   <sheets>
     <sheet name="Join feature" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,6 @@
     <t>Tick on  the checkbox  accept terms and conditions</t>
   </si>
   <si>
-    <t>Verify to check customer to  join in feature with valid  data</t>
-  </si>
-  <si>
     <t>TC001-HP</t>
   </si>
   <si>
@@ -1107,10 +1104,6 @@
     <t>Level=Expert</t>
   </si>
   <si>
-    <t>User shold succesfully add the skill and level and should appear in the skills section
-"Java has been added to your skills"</t>
-  </si>
-  <si>
     <t>TC005-AF</t>
   </si>
   <si>
@@ -1149,10 +1142,6 @@
     <t>Level= Beginner</t>
   </si>
   <si>
-    <t>User should able to see the below message
-"Please enter Skill and Experience and level"</t>
-  </si>
-  <si>
     <t>4. Enter the skills in the skill text field</t>
   </si>
   <si>
@@ -1333,11 +1322,22 @@
     <t>Verify adding existing skilland level</t>
   </si>
   <si>
-    <t>Verify the update functionality in skills</t>
-  </si>
-  <si>
     <t>User should able to see the below message
 "manual testing has been deleted "</t>
+  </si>
+  <si>
+    <t>User should succesfully add the skill and level and should appear in the skills section
+"Java has been added to your skills"</t>
+  </si>
+  <si>
+    <t>User should able to see the below message
+"Please enter Skill and Experience  level"</t>
+  </si>
+  <si>
+    <t>Verify the Edit update functionality in skills</t>
+  </si>
+  <si>
+    <t>Verify to check customer to  join in feature with tick the T&amp;C checkbox</t>
   </si>
 </sst>
 </file>
@@ -2355,14 +2355,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB143F15-7FC2-450A-9CBD-0F9F02BBDE10}">
   <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView topLeftCell="A2" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="97.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="62.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" style="15" customWidth="1"/>
     <col min="4" max="4" width="38.109375" style="15" customWidth="1"/>
     <col min="5" max="5" width="35.21875" style="15" customWidth="1"/>
@@ -2395,7 +2395,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="45" t="s">
         <v>22</v>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="2" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -2416,12 +2416,12 @@
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="5"/>
     </row>
@@ -2447,7 +2447,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
@@ -2552,10 +2552,10 @@
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
@@ -2564,12 +2564,12 @@
         <v>14</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="10"/>
     </row>
@@ -2595,7 +2595,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="7"/>
@@ -2676,7 +2676,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="23" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>23</v>
@@ -2723,12 +2723,12 @@
         <v>14</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I23" s="10"/>
     </row>
@@ -2754,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="7"/>
@@ -2848,7 +2848,7 @@
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -2870,27 +2870,27 @@
     </row>
     <row r="34" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2953,10 +2953,10 @@
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="7"/>
@@ -2983,10 +2983,10 @@
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>53</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="7"/>
@@ -3033,16 +3033,16 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="7"/>
@@ -3106,7 +3106,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -3132,7 +3132,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -3158,7 +3158,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -3180,24 +3180,24 @@
     </row>
     <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I56" s="10"/>
     </row>
@@ -3223,7 +3223,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="7"/>
@@ -3235,7 +3235,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>16</v>
@@ -3253,7 +3253,7 @@
         <v>42</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="7"/>
@@ -3265,7 +3265,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -3291,7 +3291,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -3339,24 +3339,24 @@
     </row>
     <row r="67" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D67" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="25"/>
       <c r="H67" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I67" s="27"/>
       <c r="J67" s="15"/>
@@ -3384,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="6"/>
@@ -3397,7 +3397,7 @@
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>16</v>
@@ -3416,7 +3416,7 @@
         <v>42</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="6"/>
@@ -3429,7 +3429,7 @@
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
@@ -3457,7 +3457,7 @@
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -3508,24 +3508,24 @@
     </row>
     <row r="78" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I78" s="10"/>
     </row>
@@ -3551,7 +3551,7 @@
         <v>7</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="7"/>
@@ -3563,7 +3563,7 @@
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>16</v>
@@ -3581,7 +3581,7 @@
         <v>42</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="7"/>
@@ -3593,7 +3593,7 @@
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -3619,7 +3619,7 @@
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
@@ -3667,10 +3667,10 @@
     </row>
     <row r="89" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>18</v>
@@ -3679,12 +3679,12 @@
         <v>14</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I89" s="10"/>
     </row>
@@ -3695,7 +3695,7 @@
         <v>6</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="7"/>
@@ -3710,7 +3710,7 @@
         <v>7</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="7"/>
@@ -3737,10 +3737,10 @@
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="7"/>
@@ -3752,7 +3752,7 @@
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -3778,7 +3778,7 @@
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
@@ -3826,10 +3826,10 @@
     </row>
     <row r="100" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C100" s="9" t="s">
         <v>18</v>
@@ -3838,12 +3838,12 @@
         <v>14</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c r="H100" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I100" s="10"/>
     </row>
@@ -3854,7 +3854,7 @@
         <v>6</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="7"/>
@@ -3869,7 +3869,7 @@
         <v>7</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="7"/>
@@ -3896,10 +3896,10 @@
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E104" s="9"/>
       <c r="F104" s="7"/>
@@ -3911,7 +3911,7 @@
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
@@ -3937,7 +3937,7 @@
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
@@ -3985,10 +3985,10 @@
     </row>
     <row r="111" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" s="30" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>18</v>
@@ -3997,12 +3997,12 @@
         <v>14</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
       <c r="H111" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I111" s="23"/>
     </row>
@@ -4013,7 +4013,7 @@
         <v>6</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E112" s="31"/>
       <c r="F112" s="21"/>
@@ -4028,7 +4028,7 @@
         <v>7</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E113" s="31"/>
       <c r="F113" s="21"/>
@@ -4057,7 +4057,7 @@
         <v>42</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E115" s="31"/>
       <c r="F115" s="21"/>
@@ -4069,7 +4069,7 @@
       <c r="A116" s="30"/>
       <c r="B116" s="21"/>
       <c r="C116" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D116" s="31"/>
       <c r="E116" s="31"/>
@@ -4095,7 +4095,7 @@
       <c r="A118" s="30"/>
       <c r="B118" s="21"/>
       <c r="C118" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D118" s="31"/>
       <c r="E118" s="31"/>
@@ -4143,10 +4143,10 @@
     </row>
     <row r="122" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="30" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>18</v>
@@ -4155,12 +4155,12 @@
         <v>14</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
       <c r="H122" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I122" s="23"/>
     </row>
@@ -4171,7 +4171,7 @@
         <v>6</v>
       </c>
       <c r="D123" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E123" s="31"/>
       <c r="F123" s="21"/>
@@ -4186,7 +4186,7 @@
         <v>7</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E124" s="31"/>
       <c r="F124" s="21"/>
@@ -4216,7 +4216,7 @@
         <v>42</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E126" s="31"/>
       <c r="F126" s="21"/>
@@ -4228,7 +4228,7 @@
       <c r="A127" s="30"/>
       <c r="B127" s="21"/>
       <c r="C127" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D127" s="31"/>
       <c r="E127" s="31"/>
@@ -4254,7 +4254,7 @@
       <c r="A129" s="30"/>
       <c r="B129" s="21"/>
       <c r="C129" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D129" s="31"/>
       <c r="E129" s="31"/>
@@ -4302,10 +4302,10 @@
     </row>
     <row r="133" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="30" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B133" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C133" s="9" t="s">
         <v>18</v>
@@ -4314,12 +4314,12 @@
         <v>14</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
       <c r="H133" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I133" s="23"/>
     </row>
@@ -4330,7 +4330,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E134" s="31"/>
       <c r="F134" s="21"/>
@@ -4345,7 +4345,7 @@
         <v>7</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E135" s="31"/>
       <c r="F135" s="21"/>
@@ -4375,7 +4375,7 @@
         <v>42</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E137" s="31"/>
       <c r="F137" s="21"/>
@@ -4387,7 +4387,7 @@
       <c r="A138" s="30"/>
       <c r="B138" s="21"/>
       <c r="C138" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D138" s="31"/>
       <c r="E138" s="31"/>
@@ -4413,7 +4413,7 @@
       <c r="A140" s="30"/>
       <c r="B140" s="21"/>
       <c r="C140" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D140" s="31"/>
       <c r="E140" s="31"/>
@@ -4461,10 +4461,10 @@
     </row>
     <row r="144" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="30" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C144" s="9" t="s">
         <v>18</v>
@@ -4473,12 +4473,12 @@
         <v>14</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
       <c r="H144" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I144" s="23"/>
     </row>
@@ -4489,7 +4489,7 @@
         <v>6</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E145" s="31"/>
       <c r="F145" s="21"/>
@@ -4504,7 +4504,7 @@
         <v>7</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E146" s="31"/>
       <c r="F146" s="21"/>
@@ -4534,7 +4534,7 @@
         <v>42</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E148" s="31"/>
       <c r="F148" s="21"/>
@@ -4546,7 +4546,7 @@
       <c r="A149" s="30"/>
       <c r="B149" s="21"/>
       <c r="C149" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D149" s="31"/>
       <c r="E149" s="31"/>
@@ -4572,7 +4572,7 @@
       <c r="A151" s="30"/>
       <c r="B151" s="21"/>
       <c r="C151" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D151" s="31"/>
       <c r="E151" s="31"/>
@@ -4620,24 +4620,24 @@
     </row>
     <row r="155" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C155" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
       <c r="H155" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I155" s="23"/>
     </row>
@@ -4663,7 +4663,7 @@
         <v>7</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="21"/>
@@ -4678,7 +4678,7 @@
         <v>41</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="21"/>
@@ -4693,7 +4693,7 @@
         <v>42</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="21"/>
@@ -4705,7 +4705,7 @@
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
@@ -4718,7 +4718,7 @@
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
@@ -4731,7 +4731,7 @@
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -4779,24 +4779,24 @@
     </row>
     <row r="166" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C166" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E166" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
       <c r="H166" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I166" s="23"/>
     </row>
@@ -4822,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="21"/>
@@ -4837,7 +4837,7 @@
         <v>41</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="21"/>
@@ -4852,7 +4852,7 @@
         <v>42</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="21"/>
@@ -4864,7 +4864,7 @@
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9"/>
@@ -4877,7 +4877,7 @@
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
@@ -4890,7 +4890,7 @@
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D173" s="9"/>
       <c r="E173" s="9"/>
@@ -4938,24 +4938,24 @@
     </row>
     <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E177" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
       <c r="H177" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I177" s="23"/>
     </row>
@@ -4981,7 +4981,7 @@
         <v>7</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="21"/>
@@ -5011,7 +5011,7 @@
         <v>42</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="21"/>
@@ -5023,7 +5023,7 @@
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9"/>
@@ -5049,7 +5049,7 @@
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9"/>
@@ -5097,24 +5097,24 @@
     </row>
     <row r="188" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C188" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E188" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
       <c r="H188" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I188" s="23"/>
     </row>
@@ -5140,7 +5140,7 @@
         <v>7</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="21"/>
@@ -5170,7 +5170,7 @@
         <v>42</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="21"/>
@@ -5182,7 +5182,7 @@
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9"/>
@@ -5208,7 +5208,7 @@
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
@@ -5771,7 +5771,7 @@
         <v>28</v>
       </c>
       <c r="G1" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="38" t="s">
         <v>29</v>
@@ -5779,23 +5779,23 @@
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="39" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>112</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="40"/>
     </row>
@@ -5838,7 +5838,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -5858,13 +5858,13 @@
     </row>
     <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>30</v>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -5932,7 +5932,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -5952,23 +5952,23 @@
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="10"/>
     </row>
@@ -6014,7 +6014,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -6034,23 +6034,23 @@
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -6096,7 +6096,7 @@
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -6116,19 +6116,19 @@
     </row>
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="19"/>
@@ -6176,7 +6176,7 @@
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -6196,23 +6196,23 @@
     </row>
     <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -6223,7 +6223,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
@@ -6234,7 +6234,7 @@
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -6246,7 +6246,7 @@
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -6270,7 +6270,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -6290,23 +6290,23 @@
     </row>
     <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H40" s="10"/>
     </row>
@@ -6328,7 +6328,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -6364,7 +6364,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -6384,23 +6384,23 @@
     </row>
     <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H47" s="10"/>
     </row>
@@ -6411,7 +6411,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -6434,7 +6434,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -6458,7 +6458,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -6478,23 +6478,23 @@
     </row>
     <row r="54" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C54" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H54" s="10"/>
     </row>
@@ -6516,7 +6516,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
@@ -6552,7 +6552,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -6572,23 +6572,23 @@
     </row>
     <row r="61" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C61" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H61" s="10"/>
     </row>
@@ -6599,7 +6599,7 @@
         <v>19</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
@@ -6622,7 +6622,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -6646,7 +6646,7 @@
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -6666,23 +6666,23 @@
     </row>
     <row r="68" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H68" s="10"/>
     </row>
@@ -6693,7 +6693,7 @@
         <v>19</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
@@ -6716,7 +6716,7 @@
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -6740,7 +6740,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -6760,21 +6760,21 @@
     </row>
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B75" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="39" t="s">
         <v>143</v>
-      </c>
-      <c r="C75" s="39" t="s">
-        <v>144</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H75" s="10"/>
     </row>
@@ -6782,7 +6782,7 @@
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -6802,21 +6802,21 @@
     </row>
     <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C78" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D78" s="7"/>
       <c r="E78" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H78" s="10"/>
     </row>
@@ -6824,7 +6824,7 @@
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -6836,7 +6836,7 @@
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
@@ -6856,23 +6856,23 @@
     </row>
     <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H82" s="10"/>
     </row>
@@ -6880,7 +6880,7 @@
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -6892,7 +6892,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -6912,23 +6912,23 @@
     </row>
     <row r="86" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B86" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="C86" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D86" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E86" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H86" s="10"/>
     </row>
@@ -6936,7 +6936,7 @@
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
@@ -6948,7 +6948,7 @@
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
@@ -6958,19 +6958,19 @@
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D89" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F89" s="7"/>
       <c r="G89" s="19"/>
@@ -7030,7 +7030,7 @@
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -7143,7 +7143,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="54" t="s">
         <v>22</v>
@@ -7507,21 +7507,21 @@
     </row>
     <row r="3" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="55"/>
     </row>
@@ -7529,11 +7529,11 @@
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="19"/>
@@ -7545,7 +7545,7 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="19"/>
@@ -7557,7 +7557,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="19"/>
@@ -7569,7 +7569,7 @@
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="19"/>
@@ -7581,7 +7581,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="19"/>
@@ -7593,7 +7593,7 @@
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="19"/>
@@ -7605,7 +7605,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="19"/>
@@ -7623,17 +7623,17 @@
     </row>
     <row r="12" spans="1:354" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="19"/>
@@ -7643,15 +7643,15 @@
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="55"/>
     </row>
@@ -7659,11 +7659,11 @@
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="19"/>
@@ -7675,7 +7675,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="19"/>
@@ -7687,7 +7687,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="19"/>
@@ -7699,7 +7699,7 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="19"/>
@@ -7711,7 +7711,7 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="19"/>
@@ -7729,23 +7729,23 @@
     </row>
     <row r="20" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="55"/>
     </row>
@@ -7753,7 +7753,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="9"/>
@@ -7765,7 +7765,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -7777,7 +7777,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -7789,7 +7789,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -7809,21 +7809,21 @@
     </row>
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="55"/>
     </row>
@@ -7831,7 +7831,7 @@
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -7843,7 +7843,7 @@
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -7855,7 +7855,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -7867,7 +7867,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -7887,21 +7887,21 @@
     </row>
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" s="55"/>
     </row>
@@ -7909,11 +7909,11 @@
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="19"/>
@@ -7923,11 +7923,11 @@
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="19"/>
@@ -7945,21 +7945,21 @@
     </row>
     <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="55"/>
     </row>
@@ -7967,7 +7967,7 @@
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -7979,7 +7979,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -7991,7 +7991,7 @@
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -8003,7 +8003,7 @@
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -8023,21 +8023,21 @@
     </row>
     <row r="42" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H42" s="55"/>
     </row>
@@ -8045,7 +8045,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -8057,7 +8057,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -8077,23 +8077,23 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H46" s="55"/>
     </row>
@@ -8101,7 +8101,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -8113,7 +8113,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -8125,7 +8125,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -8137,7 +8137,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -8157,21 +8157,21 @@
     </row>
     <row r="52" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H52" s="55"/>
     </row>
@@ -8179,7 +8179,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -8191,7 +8191,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -8211,23 +8211,23 @@
     </row>
     <row r="56" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H56" s="55"/>
     </row>
@@ -8235,7 +8235,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -8246,7 +8246,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -8258,7 +8258,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -8270,7 +8270,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -8290,21 +8290,21 @@
     </row>
     <row r="62" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>227</v>
-      </c>
       <c r="C62" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H62" s="55"/>
     </row>
@@ -8312,7 +8312,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -8324,7 +8324,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -8344,23 +8344,23 @@
     </row>
     <row r="66" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D66" s="9" t="s">
+      <c r="E66" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="F66" s="7"/>
       <c r="G66" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H66" s="55"/>
     </row>
@@ -8368,7 +8368,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
@@ -8379,7 +8379,7 @@
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -8391,7 +8391,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -8403,7 +8403,7 @@
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -8450,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AE4F74-EE94-4895-8B60-D237DB787415}">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8467,7 +8467,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B1" s="63" t="s">
         <v>25</v>
@@ -8485,7 +8485,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="64" t="s">
         <v>22</v>
@@ -8493,21 +8493,21 @@
     </row>
     <row r="2" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="58"/>
       <c r="E2" s="59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F2" s="58"/>
       <c r="G2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="66"/>
     </row>
@@ -8515,7 +8515,7 @@
       <c r="A3" s="67"/>
       <c r="B3" s="60"/>
       <c r="C3" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="58"/>
@@ -8527,7 +8527,7 @@
       <c r="A4" s="67"/>
       <c r="B4" s="58"/>
       <c r="C4" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
@@ -8547,23 +8547,23 @@
     </row>
     <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F6" s="58"/>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="66"/>
     </row>
@@ -8571,10 +8571,10 @@
       <c r="A7" s="67"/>
       <c r="B7" s="58"/>
       <c r="C7" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E7" s="58"/>
       <c r="F7" s="58"/>
@@ -8585,7 +8585,7 @@
       <c r="A8" s="67"/>
       <c r="B8" s="58"/>
       <c r="C8" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="58"/>
@@ -8596,7 +8596,7 @@
       <c r="A9" s="67"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="58"/>
       <c r="E9" s="58"/>
@@ -8608,7 +8608,7 @@
       <c r="A10" s="67"/>
       <c r="B10" s="58"/>
       <c r="C10" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
@@ -8620,7 +8620,7 @@
       <c r="A11" s="67"/>
       <c r="B11" s="58"/>
       <c r="C11" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="58"/>
       <c r="E11" s="58"/>
@@ -8632,7 +8632,7 @@
       <c r="A12" s="67"/>
       <c r="B12" s="58"/>
       <c r="C12" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
@@ -8644,7 +8644,7 @@
       <c r="A13" s="67"/>
       <c r="B13" s="58"/>
       <c r="C13" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
@@ -8664,21 +8664,21 @@
     </row>
     <row r="15" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F15" s="58"/>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H15" s="66"/>
     </row>
@@ -8686,10 +8686,10 @@
       <c r="A16" s="67"/>
       <c r="B16" s="58"/>
       <c r="C16" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
@@ -8700,10 +8700,10 @@
       <c r="A17" s="67"/>
       <c r="B17" s="58"/>
       <c r="C17" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D17" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E17" s="58"/>
       <c r="F17" s="58"/>
@@ -8714,7 +8714,7 @@
       <c r="A18" s="67"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D18" s="58"/>
       <c r="E18" s="58"/>
@@ -8726,7 +8726,7 @@
       <c r="A19" s="67"/>
       <c r="B19" s="58"/>
       <c r="C19" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
@@ -8738,7 +8738,7 @@
       <c r="A20" s="67"/>
       <c r="B20" s="58"/>
       <c r="C20" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
@@ -8750,7 +8750,7 @@
       <c r="A21" s="67"/>
       <c r="B21" s="58"/>
       <c r="C21" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
@@ -8762,7 +8762,7 @@
       <c r="A22" s="67"/>
       <c r="B22" s="58"/>
       <c r="C22" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D22" s="58"/>
       <c r="E22" s="58"/>
@@ -8774,7 +8774,7 @@
       <c r="A23" s="67"/>
       <c r="B23" s="58"/>
       <c r="C23" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
@@ -8794,23 +8794,23 @@
     </row>
     <row r="25" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" s="66"/>
     </row>
@@ -8818,10 +8818,10 @@
       <c r="A26" s="67"/>
       <c r="B26" s="58"/>
       <c r="C26" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D26" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E26" s="58"/>
       <c r="F26" s="58"/>
@@ -8832,7 +8832,7 @@
       <c r="A27" s="67"/>
       <c r="B27" s="58"/>
       <c r="C27" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E27" s="58"/>
       <c r="F27" s="58"/>
@@ -8843,7 +8843,7 @@
       <c r="A28" s="67"/>
       <c r="B28" s="58"/>
       <c r="C28" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D28" s="58"/>
       <c r="E28" s="58"/>
@@ -8855,7 +8855,7 @@
       <c r="A29" s="67"/>
       <c r="B29" s="58"/>
       <c r="C29" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D29" s="58"/>
       <c r="E29" s="58"/>
@@ -8867,7 +8867,7 @@
       <c r="A30" s="67"/>
       <c r="B30" s="58"/>
       <c r="C30" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D30" s="58"/>
       <c r="E30" s="58"/>
@@ -8879,7 +8879,7 @@
       <c r="A31" s="67"/>
       <c r="B31" s="58"/>
       <c r="C31" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D31" s="58"/>
       <c r="E31" s="58"/>
@@ -8891,7 +8891,7 @@
       <c r="A32" s="67"/>
       <c r="B32" s="58"/>
       <c r="C32" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D32" s="58"/>
       <c r="E32" s="58"/>
@@ -8903,7 +8903,7 @@
       <c r="A33" s="67"/>
       <c r="B33" s="58"/>
       <c r="C33" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="58"/>
@@ -8923,23 +8923,23 @@
     </row>
     <row r="35" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D35" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E35" s="59" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F35" s="58"/>
       <c r="G35" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H35" s="66"/>
     </row>
@@ -8947,10 +8947,10 @@
       <c r="A36" s="67"/>
       <c r="B36" s="58"/>
       <c r="C36" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E36" s="58"/>
       <c r="F36" s="58"/>
@@ -8961,7 +8961,7 @@
       <c r="A37" s="67"/>
       <c r="B37" s="58"/>
       <c r="C37" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E37" s="58"/>
       <c r="F37" s="58"/>
@@ -8972,7 +8972,7 @@
       <c r="A38" s="67"/>
       <c r="B38" s="58"/>
       <c r="C38" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D38" s="58"/>
       <c r="E38" s="58"/>
@@ -8984,7 +8984,7 @@
       <c r="A39" s="67"/>
       <c r="B39" s="58"/>
       <c r="C39" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="58"/>
@@ -8996,7 +8996,7 @@
       <c r="A40" s="67"/>
       <c r="B40" s="58"/>
       <c r="C40" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D40" s="58"/>
       <c r="E40" s="58"/>
@@ -9008,7 +9008,7 @@
       <c r="A41" s="67"/>
       <c r="B41" s="58"/>
       <c r="C41" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D41" s="58"/>
       <c r="E41" s="58"/>
@@ -9020,7 +9020,7 @@
       <c r="A42" s="67"/>
       <c r="B42" s="58"/>
       <c r="C42" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
@@ -9032,7 +9032,7 @@
       <c r="A43" s="67"/>
       <c r="B43" s="58"/>
       <c r="C43" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D43" s="58"/>
       <c r="E43" s="58"/>
@@ -9052,23 +9052,23 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="67" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B45" s="58" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E45" s="58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F45" s="58"/>
       <c r="G45" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H45" s="66"/>
     </row>
@@ -9076,10 +9076,10 @@
       <c r="A46" s="67"/>
       <c r="B46" s="58"/>
       <c r="C46" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E46" s="58"/>
       <c r="F46" s="58"/>
@@ -9090,7 +9090,7 @@
       <c r="A47" s="67"/>
       <c r="B47" s="58"/>
       <c r="C47" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="58"/>
       <c r="E47" s="58"/>
@@ -9102,7 +9102,7 @@
       <c r="A48" s="67"/>
       <c r="B48" s="58"/>
       <c r="C48" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D48" s="58"/>
       <c r="E48" s="58"/>
@@ -9114,7 +9114,7 @@
       <c r="A49" s="67"/>
       <c r="B49" s="58"/>
       <c r="C49" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D49" s="58"/>
       <c r="E49" s="58"/>
@@ -9126,7 +9126,7 @@
       <c r="A50" s="67"/>
       <c r="B50" s="58"/>
       <c r="C50" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D50" s="58"/>
       <c r="E50" s="58"/>
@@ -9138,7 +9138,7 @@
       <c r="A51" s="67"/>
       <c r="B51" s="58"/>
       <c r="C51" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D51" s="58"/>
       <c r="E51" s="58"/>
@@ -9150,7 +9150,7 @@
       <c r="A52" s="67"/>
       <c r="B52" s="58"/>
       <c r="C52" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D52" s="58"/>
       <c r="E52" s="58"/>
@@ -9162,7 +9162,7 @@
       <c r="A53" s="67"/>
       <c r="B53" s="58"/>
       <c r="C53" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D53" s="58"/>
       <c r="E53" s="58"/>
@@ -9174,7 +9174,7 @@
       <c r="A54" s="67"/>
       <c r="B54" s="58"/>
       <c r="C54" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D54" s="58"/>
       <c r="E54" s="58"/>
@@ -9194,23 +9194,23 @@
     </row>
     <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="65" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B56" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="61" t="s">
         <v>264</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" s="61" t="s">
-        <v>265</v>
       </c>
       <c r="F56" s="58"/>
       <c r="G56" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H56" s="66"/>
     </row>
@@ -9218,10 +9218,10 @@
       <c r="A57" s="67"/>
       <c r="B57" s="58"/>
       <c r="C57" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E57" s="58"/>
       <c r="F57" s="58"/>
@@ -9232,7 +9232,7 @@
       <c r="A58" s="67"/>
       <c r="B58" s="58"/>
       <c r="C58" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E58" s="58"/>
       <c r="F58" s="58"/>
@@ -9243,7 +9243,7 @@
       <c r="A59" s="67"/>
       <c r="B59" s="58"/>
       <c r="C59" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D59" s="58"/>
       <c r="E59" s="58"/>
@@ -9255,7 +9255,7 @@
       <c r="A60" s="67"/>
       <c r="B60" s="58"/>
       <c r="C60" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D60" s="58"/>
       <c r="E60" s="58"/>
@@ -9267,7 +9267,7 @@
       <c r="A61" s="67"/>
       <c r="B61" s="58"/>
       <c r="C61" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
@@ -9279,7 +9279,7 @@
       <c r="A62" s="67"/>
       <c r="B62" s="58"/>
       <c r="C62" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D62" s="58"/>
       <c r="E62" s="58"/>
@@ -9291,7 +9291,7 @@
       <c r="A63" s="67"/>
       <c r="B63" s="58"/>
       <c r="C63" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D63" s="58"/>
       <c r="E63" s="58"/>
@@ -9311,23 +9311,23 @@
     </row>
     <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="67" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B65" s="58" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D65" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E65" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F65" s="58"/>
       <c r="G65" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H65" s="66"/>
     </row>
@@ -9335,10 +9335,10 @@
       <c r="A66" s="67"/>
       <c r="B66" s="58"/>
       <c r="C66" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D66" s="58" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E66" s="58"/>
       <c r="F66" s="58"/>
@@ -9349,7 +9349,7 @@
       <c r="A67" s="67"/>
       <c r="B67" s="58"/>
       <c r="C67" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D67" s="58"/>
       <c r="E67" s="58"/>
@@ -9361,7 +9361,7 @@
       <c r="A68" s="67"/>
       <c r="B68" s="58"/>
       <c r="C68" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D68" s="58"/>
       <c r="E68" s="58"/>
@@ -9373,7 +9373,7 @@
       <c r="A69" s="67"/>
       <c r="B69" s="58"/>
       <c r="C69" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D69" s="58"/>
       <c r="E69" s="58"/>
@@ -9385,7 +9385,7 @@
       <c r="A70" s="67"/>
       <c r="B70" s="58"/>
       <c r="C70" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D70" s="58"/>
       <c r="E70" s="58"/>
@@ -9397,7 +9397,7 @@
       <c r="A71" s="67"/>
       <c r="B71" s="58"/>
       <c r="C71" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D71" s="58"/>
       <c r="E71" s="58"/>
@@ -9417,23 +9417,23 @@
     </row>
     <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="67" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B73" s="58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D73" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E73" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F73" s="58"/>
       <c r="G73" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H73" s="66"/>
     </row>
@@ -9441,10 +9441,10 @@
       <c r="A74" s="67"/>
       <c r="B74" s="58"/>
       <c r="C74" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D74" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E74" s="58"/>
       <c r="F74" s="58"/>
@@ -9455,7 +9455,7 @@
       <c r="A75" s="67"/>
       <c r="B75" s="58"/>
       <c r="C75" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D75" s="58"/>
       <c r="E75" s="58"/>
@@ -9467,7 +9467,7 @@
       <c r="A76" s="67"/>
       <c r="B76" s="58"/>
       <c r="C76" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D76" s="58"/>
       <c r="E76" s="58"/>
@@ -9479,7 +9479,7 @@
       <c r="A77" s="67"/>
       <c r="B77" s="58"/>
       <c r="C77" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D77" s="58"/>
       <c r="E77" s="58"/>
@@ -9491,7 +9491,7 @@
       <c r="A78" s="67"/>
       <c r="B78" s="58"/>
       <c r="C78" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D78" s="58"/>
       <c r="E78" s="58"/>
@@ -9503,7 +9503,7 @@
       <c r="A79" s="67"/>
       <c r="B79" s="58"/>
       <c r="C79" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D79" s="58"/>
       <c r="E79" s="58"/>
@@ -9523,23 +9523,23 @@
     </row>
     <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="65" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D81" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E81" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F81" s="58"/>
       <c r="G81" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H81" s="66"/>
     </row>
@@ -9547,10 +9547,10 @@
       <c r="A82" s="67"/>
       <c r="B82" s="58"/>
       <c r="C82" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E82" s="58"/>
       <c r="F82" s="58"/>
@@ -9561,7 +9561,7 @@
       <c r="A83" s="67"/>
       <c r="B83" s="58"/>
       <c r="C83" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="58"/>
       <c r="E83" s="58"/>
@@ -9573,7 +9573,7 @@
       <c r="A84" s="67"/>
       <c r="B84" s="58"/>
       <c r="C84" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="58"/>
       <c r="E84" s="58"/>
@@ -9585,7 +9585,7 @@
       <c r="A85" s="67"/>
       <c r="B85" s="58"/>
       <c r="C85" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D85" s="58"/>
       <c r="E85" s="58"/>
@@ -9597,7 +9597,7 @@
       <c r="A86" s="67"/>
       <c r="B86" s="58"/>
       <c r="C86" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D86" s="58"/>
       <c r="E86" s="58"/>
@@ -9609,7 +9609,7 @@
       <c r="A87" s="67"/>
       <c r="B87" s="58"/>
       <c r="C87" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="58"/>
       <c r="E87" s="58"/>
@@ -9629,23 +9629,23 @@
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="65" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D89" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E89" s="59" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F89" s="58"/>
       <c r="G89" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H89" s="66"/>
     </row>
@@ -9653,10 +9653,10 @@
       <c r="A90" s="67"/>
       <c r="B90" s="58"/>
       <c r="C90" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D90" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E90" s="58"/>
       <c r="F90" s="58"/>
@@ -9667,7 +9667,7 @@
       <c r="A91" s="67"/>
       <c r="B91" s="58"/>
       <c r="C91" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D91" s="58"/>
       <c r="E91" s="58"/>
@@ -9679,7 +9679,7 @@
       <c r="A92" s="67"/>
       <c r="B92" s="58"/>
       <c r="C92" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D92" s="58"/>
       <c r="E92" s="58"/>
@@ -9691,7 +9691,7 @@
       <c r="A93" s="67"/>
       <c r="B93" s="58"/>
       <c r="C93" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D93" s="58"/>
       <c r="E93" s="58"/>
@@ -9703,7 +9703,7 @@
       <c r="A94" s="67"/>
       <c r="B94" s="58"/>
       <c r="C94" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D94" s="58"/>
       <c r="E94" s="58"/>
@@ -9715,7 +9715,7 @@
       <c r="A95" s="67"/>
       <c r="B95" s="58"/>
       <c r="C95" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D95" s="58"/>
       <c r="E95" s="58"/>
@@ -9727,7 +9727,7 @@
       <c r="A96" s="67"/>
       <c r="B96" s="58"/>
       <c r="C96" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D96" s="58"/>
       <c r="E96" s="58"/>
@@ -9757,23 +9757,23 @@
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="65" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D99" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E99" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F99" s="58"/>
       <c r="G99" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H99" s="66"/>
     </row>
@@ -9781,10 +9781,10 @@
       <c r="A100" s="67"/>
       <c r="B100" s="58"/>
       <c r="C100" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D100" s="58" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E100" s="58"/>
       <c r="F100" s="58"/>
@@ -9795,7 +9795,7 @@
       <c r="A101" s="67"/>
       <c r="B101" s="58"/>
       <c r="C101" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D101" s="58"/>
       <c r="E101" s="58"/>
@@ -9807,7 +9807,7 @@
       <c r="A102" s="67"/>
       <c r="B102" s="58"/>
       <c r="C102" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="58"/>
       <c r="E102" s="58"/>
@@ -9819,7 +9819,7 @@
       <c r="A103" s="67"/>
       <c r="B103" s="58"/>
       <c r="C103" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="58"/>
       <c r="E103" s="58"/>
@@ -9831,7 +9831,7 @@
       <c r="A104" s="67"/>
       <c r="B104" s="58"/>
       <c r="C104" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D104" s="58"/>
       <c r="E104" s="58"/>
@@ -9843,7 +9843,7 @@
       <c r="A105" s="67"/>
       <c r="B105" s="58"/>
       <c r="C105" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D105" s="58"/>
       <c r="E105" s="58"/>
@@ -9855,7 +9855,7 @@
       <c r="A106" s="67"/>
       <c r="B106" s="58"/>
       <c r="C106" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D106" s="58"/>
       <c r="E106" s="58"/>
@@ -9895,23 +9895,23 @@
     </row>
     <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="65" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B110" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D110" s="58" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E110" s="59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F110" s="58"/>
       <c r="G110" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H110" s="66"/>
     </row>
@@ -9919,10 +9919,10 @@
       <c r="A111" s="67"/>
       <c r="B111" s="58"/>
       <c r="C111" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D111" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E111" s="58"/>
       <c r="F111" s="58"/>
@@ -9933,7 +9933,7 @@
       <c r="A112" s="67"/>
       <c r="B112" s="58"/>
       <c r="C112" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D112" s="58"/>
       <c r="E112" s="58"/>
@@ -9945,7 +9945,7 @@
       <c r="A113" s="67"/>
       <c r="B113" s="58"/>
       <c r="C113" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="58"/>
@@ -9957,7 +9957,7 @@
       <c r="A114" s="67"/>
       <c r="B114" s="58"/>
       <c r="C114" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D114" s="58"/>
       <c r="E114" s="58"/>
@@ -9969,7 +9969,7 @@
       <c r="A115" s="67"/>
       <c r="B115" s="58"/>
       <c r="C115" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="58"/>
@@ -9981,7 +9981,7 @@
       <c r="A116" s="67"/>
       <c r="B116" s="58"/>
       <c r="C116" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="58"/>
@@ -9993,7 +9993,7 @@
       <c r="A117" s="67"/>
       <c r="B117" s="58"/>
       <c r="C117" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="58"/>
@@ -10013,23 +10013,23 @@
     </row>
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="B119" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="B119" s="57" t="s">
-        <v>297</v>
-      </c>
       <c r="C119" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D119" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E119" s="59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F119" s="58"/>
       <c r="G119" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H119" s="66"/>
     </row>
@@ -10037,10 +10037,10 @@
       <c r="A120" s="67"/>
       <c r="B120" s="58"/>
       <c r="C120" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D120" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E120" s="58"/>
       <c r="F120" s="58"/>
@@ -10051,7 +10051,7 @@
       <c r="A121" s="67"/>
       <c r="B121" s="58"/>
       <c r="C121" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D121" s="58"/>
       <c r="E121" s="58"/>
@@ -10063,7 +10063,7 @@
       <c r="A122" s="67"/>
       <c r="B122" s="58"/>
       <c r="C122" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D122" s="58"/>
       <c r="E122" s="58"/>
@@ -10075,7 +10075,7 @@
       <c r="A123" s="67"/>
       <c r="B123" s="58"/>
       <c r="C123" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D123" s="58"/>
       <c r="E123" s="58"/>
@@ -10087,7 +10087,7 @@
       <c r="A124" s="67"/>
       <c r="B124" s="58"/>
       <c r="C124" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D124" s="58"/>
       <c r="E124" s="58"/>
@@ -10099,7 +10099,7 @@
       <c r="A125" s="67"/>
       <c r="B125" s="58"/>
       <c r="C125" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D125" s="58"/>
       <c r="E125" s="58"/>
@@ -10111,7 +10111,7 @@
       <c r="A126" s="67"/>
       <c r="B126" s="58"/>
       <c r="C126" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D126" s="58"/>
       <c r="E126" s="58"/>
@@ -10131,23 +10131,23 @@
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="65" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B128" s="57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D128" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E128" s="59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F128" s="58"/>
       <c r="G128" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H128" s="66"/>
     </row>
@@ -10155,10 +10155,10 @@
       <c r="A129" s="67"/>
       <c r="B129" s="58"/>
       <c r="C129" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D129" s="58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E129" s="58"/>
       <c r="F129" s="58"/>
@@ -10169,7 +10169,7 @@
       <c r="A130" s="67"/>
       <c r="B130" s="58"/>
       <c r="C130" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D130" s="58"/>
       <c r="E130" s="58"/>
@@ -10181,7 +10181,7 @@
       <c r="A131" s="67"/>
       <c r="B131" s="58"/>
       <c r="C131" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D131" s="58"/>
       <c r="E131" s="58"/>
@@ -10193,7 +10193,7 @@
       <c r="A132" s="67"/>
       <c r="B132" s="58"/>
       <c r="C132" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D132" s="58"/>
       <c r="E132" s="58"/>
@@ -10260,8 +10260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C34AFF-EB58-48F4-9823-0867490A81BB}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10279,7 +10279,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B1" s="51" t="s">
         <v>25</v>
@@ -10297,7 +10297,7 @@
         <v>8</v>
       </c>
       <c r="G1" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H1" s="52" t="s">
         <v>22</v>
@@ -10305,21 +10305,21 @@
     </row>
     <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="10"/>
     </row>
@@ -10327,7 +10327,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="71"/>
       <c r="C3" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -10339,7 +10339,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="71"/>
       <c r="C4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -10359,23 +10359,23 @@
     </row>
     <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -10383,10 +10383,10 @@
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -10397,7 +10397,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -10408,7 +10408,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -10420,7 +10420,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -10432,7 +10432,7 @@
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -10444,7 +10444,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -10456,7 +10456,7 @@
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -10468,7 +10468,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -10488,23 +10488,23 @@
     </row>
     <row r="16" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="10"/>
     </row>
@@ -10512,10 +10512,10 @@
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
@@ -10526,7 +10526,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -10537,7 +10537,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -10549,7 +10549,7 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -10561,7 +10561,7 @@
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -10573,7 +10573,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -10585,7 +10585,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -10597,7 +10597,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -10617,21 +10617,21 @@
     </row>
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="9" t="s">
-        <v>325</v>
+        <v>396</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="10"/>
     </row>
@@ -10639,10 +10639,10 @@
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -10653,10 +10653,10 @@
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -10667,7 +10667,7 @@
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -10679,7 +10679,7 @@
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -10691,7 +10691,7 @@
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -10703,7 +10703,7 @@
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -10715,7 +10715,7 @@
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -10727,7 +10727,7 @@
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -10747,23 +10747,23 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="10"/>
     </row>
@@ -10771,10 +10771,10 @@
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
@@ -10785,7 +10785,7 @@
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -10797,7 +10797,7 @@
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -10809,7 +10809,7 @@
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -10821,7 +10821,7 @@
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -10833,7 +10833,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -10845,7 +10845,7 @@
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -10857,7 +10857,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -10869,7 +10869,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -10889,21 +10889,21 @@
     </row>
     <row r="47" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="9" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H47" s="10"/>
     </row>
@@ -10911,10 +10911,10 @@
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -10925,10 +10925,10 @@
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -10939,7 +10939,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -10951,7 +10951,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -10963,7 +10963,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -10975,7 +10975,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -10987,7 +10987,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -11007,23 +11007,23 @@
     </row>
     <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="E56" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H56" s="10"/>
     </row>
@@ -11031,10 +11031,10 @@
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -11045,7 +11045,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
@@ -11057,7 +11057,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
@@ -11069,7 +11069,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
@@ -11081,7 +11081,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
@@ -11093,7 +11093,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
@@ -11111,25 +11111,25 @@
       <c r="G63" s="7"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H64" s="10"/>
     </row>
@@ -11137,10 +11137,10 @@
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
@@ -11151,7 +11151,7 @@
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -11163,7 +11163,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -11175,7 +11175,7 @@
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -11187,7 +11187,7 @@
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -11207,23 +11207,23 @@
     </row>
     <row r="71" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F71" s="7"/>
       <c r="G71" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H71" s="10"/>
     </row>
@@ -11231,10 +11231,10 @@
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
@@ -11245,7 +11245,7 @@
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -11257,7 +11257,7 @@
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
@@ -11269,7 +11269,7 @@
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -11281,7 +11281,7 @@
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -11293,7 +11293,7 @@
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
@@ -11313,23 +11313,23 @@
     </row>
     <row r="79" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H79" s="10"/>
     </row>
@@ -11337,10 +11337,10 @@
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
@@ -11351,7 +11351,7 @@
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
@@ -11363,7 +11363,7 @@
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -11375,7 +11375,7 @@
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
@@ -11387,7 +11387,7 @@
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
@@ -11399,7 +11399,7 @@
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -11411,7 +11411,7 @@
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -11431,23 +11431,23 @@
     </row>
     <row r="88" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>398</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H88" s="10"/>
     </row>
@@ -11455,10 +11455,10 @@
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
@@ -11469,7 +11469,7 @@
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
@@ -11481,7 +11481,7 @@
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -11493,7 +11493,7 @@
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -11505,7 +11505,7 @@
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
@@ -11517,7 +11517,7 @@
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
@@ -11529,7 +11529,7 @@
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
@@ -11549,23 +11549,23 @@
     </row>
     <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F97" s="7"/>
       <c r="G97" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H97" s="10"/>
     </row>
@@ -11573,10 +11573,10 @@
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
@@ -11587,7 +11587,7 @@
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
@@ -11599,7 +11599,7 @@
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
@@ -11611,7 +11611,7 @@
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
@@ -11623,7 +11623,7 @@
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D102" s="7"/>
       <c r="E102" s="7"/>
@@ -11635,7 +11635,7 @@
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
@@ -11647,7 +11647,7 @@
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
@@ -11667,23 +11667,23 @@
     </row>
     <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H106" s="10"/>
     </row>
@@ -11691,10 +11691,10 @@
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
@@ -11705,7 +11705,7 @@
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
@@ -11717,7 +11717,7 @@
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -11729,7 +11729,7 @@
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
